--- a/news_data/2016_04.xlsx
+++ b/news_data/2016_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 생태관광육성위원회 각계 18명으로 구성</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광육성위원회 위촉</t>
+  </si>
+  <si>
+    <t>‘스마트 관광섬’ 제주도, 감귤 대신 ‘태양광 농사’ 짓는다!</t>
+  </si>
+  <si>
+    <t>제주도의 성주참외 홍보관 성과…시식한 중국인 관광객 호평</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '제주의 재발견' 영상 공모전 개최</t>
+  </si>
+  <si>
+    <t>제주도, 28일 공영관광지요금 현실화 용역 설명회</t>
+  </si>
+  <si>
+    <t>제주도 직영 관광지 입장료 인상 가시화</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 옆 ‘더 바른’ 오피스텔 분양</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "제주관광포럼 제1차 운영위원회의" 개최</t>
+  </si>
+  <si>
+    <t>제주도 '관광의 질' 높인다…14개 중점과제 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회·성주군, '맞손'</t>
+  </si>
+  <si>
+    <t>제주도 관광 명소 된 소길리 이효리집, 이젠 집만 '덩그러니'</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 일본 관광객 회복 위해 앞장선다</t>
+  </si>
+  <si>
+    <t>주영섭 "제주도 전통시장 활성화 위해 크루즈 연계 관광상품 개발"</t>
+  </si>
+  <si>
+    <t>제주도 국내ㆍ외 관광수요 급증, 분양형호텔 품귀현상 지속되나</t>
+  </si>
+  <si>
+    <t>이효리-이상순 제주도 자택서 결국 이사, “관광지 아닌데 왜 자꾸…”</t>
+  </si>
+  <si>
+    <t>봄철 제주도 여행 펜션 선택, 관광지 인근 및 행사 진행여부 파악해야</t>
+  </si>
+  <si>
+    <t>제주도, 도내 공영관광지 운영평가 실시</t>
+  </si>
+  <si>
+    <t>제주도 복지관광자문위 출범...위원장에 김경범 교수</t>
+  </si>
+  <si>
+    <t>제주도 복지관광자문위원회 출범</t>
+  </si>
+  <si>
     <t>김무성 "제주도 관광 위해 안보 중요...더민주 테러방치 정당"</t>
   </si>
   <si>
@@ -40,43 +100,94 @@
     <t>제주도관광협회, 고객감동 '찾아가는 친절교육' 실시</t>
   </si>
   <si>
+    <t>[시선강탈] '배틀트립' 심형탁, LED 연꽃 있는 제주도 선운정사 관광</t>
+  </si>
+  <si>
     <t>한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영</t>
   </si>
   <si>
     <t>제19회 제주도 관광기념품 공모전 개최...출품 조건은?</t>
   </si>
   <si>
-    <t>[시선강탈] '배틀트립' 심형탁, LED 연꽃 있는 제주도 선운정사 관광</t>
-  </si>
-  <si>
     <t>“제주도할랄테마단지 조성과 무슬림 관광 정책 철회하라”</t>
   </si>
   <si>
-    <t>서울특별시 미디어재단 TBS 메인메뉴바로가기 본문바로가기 TV FM 95.1 eFM 101.3 뉴스 교통정보 로그인 · 회원가입 · ABOUT TBS 전체메뉴 시작 TV 프로그램소개 편성표 VOD다시보기 TV시청방법안내 FM 프로그램소개 편성표 다시듣기 eFM About the program Schedule AOD Replay Announcements Board 뉴스 지역·시민 교통 세계 인싸이언스 코로나19 분야별 교통정보 주요지역 속도정보 교통정보 전화번호 홈 지역·시민 교통 세계 인싸이언스 코로나19 분야별 전체 수도권 정치 경제 사회 국제 문화·스포츠 뉴스제보 정치 김무성 "제주도 관광 위해 안보 중요...더민주 테러방치 정당" 김호정 neversaytoyou@hanmail.net 2016-04-11 21:25 새누리당 김무성 대표는 "제주의 먹거리 산업인 관광과 서비스업은 안보가 중요한데, 더불어민주당은 안보를 포기하고 테러를 방치하는 정당이 됐다"고 비난했습니다. 김 대표는 오늘(11일) 제주도 서귀포 지원 유세에서 "안보가 흔들리고 관광객 안전이 보장되지 않으면 어느 관광객이 제주도를 찾겠느냐"며 이같이 말했습니다. 김 대표는 "안보 포기 정당, 안보 무지 정당, 안보 무책임 정당인 운동권 정당 더민주에 더이상 제주를 맡겨서는 안된다"면서 "새누리당만이 안보를 지키고, 이에 기초해 경제와 민생을 챙길 수 있다"고 지지를 호소했습니다.이어 "새누리당이 17대 때부터 내리 3차례 제주에서 의석을 얻지 못했다"면서 "그렇게 되면 당정청 회의에서 제주 출신 의원이 목소리를 못 낸다"고 강조했습니다.■ 기사제보 및 보도자료 제공 tbs3@naver.com / copyrightⓒ tbs. 무단전재 &amp; 재배포 금지 더 많은 기사 보기 정치 추천 기사 인기 기사 1 4354주년 개천절 경축식…'세상을 이롭게 대한을 ... 2 금리 인상에 집값 하락 여파로 서울 아파트 증여도 감소 3 개천절 광화문서 3만명대 대규모 집회...일대 교통혼잡 4 [신장개업] 주원 현대경제연구원 경제연구실장, “한 ... 5 신축빌라 깡통전세 사기 늘면서 감정평가서 보험사고도 ... 6 감사원, 문 전 대통령에 서면조사 통보… 文, 반송 7 이기일 차관 "내년 3월쯤 실내 마스크 벗 ... 8 내일부터 요양병원 대면면회 허용…외부 프로그램 운영 ... 9 정보통신망 침해 범죄 매일 10건씩 발생…72％가 ... 10 뉴욕증시, 금리부담 완화에 급반등…다우 2.7％↑· ... 개인정보처리방침  l 영상정보처리기기방침  l 사이버 감사실  l 저작권 정책  l 광고 • 협찬단가표  l 시청자 위원회  l 정보공개 03909 서울특별시 마포구 매봉산로 31 S-PLEX CENTER | 문의전화 : 02-311-5114(ARS)Copyright © Since 2020 Seoul Media Foundation TBS. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>제주도관광협회 공식 제주여행 블로그기자단 출범 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 공식 제주여행 블로그기자단 출범 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 공식 제주여행 블로그기자단 출범 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.11 13:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 8일 제주웰컴센터에서 '2016 제주여행 블로그 기자단' 위촉식을 갖고 본격 운영에 들어갔다고 11일 밝혔다.제주여행 블로그기지단은 협회 홉페이지, 하이제주 포털, 협회.하이제주 페이스북을 통해 접수한 신청자 가운데 비상업적이고 제주에 거주하면서 활동을 하고 있는 블로거 7명이 선정됐다. 이번에 선정된 기자단은 파워블로거로 이름이 알려진 블로거를 비롯해 회사원(IT업체 등), 여행작가 등 다양한 직업군으로 구성되어 각자 개성있는 열할을 담당할 것으로 기대하고 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 펜션 찾고 있다면, 다양한 관광지와 더불어 체험 여부 확인해야 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 제주도 펜션 찾고 있다면, 다양한 관광지와 더불어 체험 여부 확인해야 발행일 : 2016-04-08 16:31 제주도 서귀포 중문관광단지 인근에 위치한 ‘풀향기휴양펜션’은 20평 6채, 24평 2채로 삼나무로 지어진 독채 복층펜션이다. 또한 야외데크에서는 개별 바비큐파티는 물론 전 객실이 통유리로 설치되어 있어 바다 조망이 가능하다. 이곳 주변에는 올레길 8코스 및 9코스가 위치해 있어 제주 트레킹을 온 관광객들이 자주 방문한다. 뿐만 아니라 대평리바닷가에 위치해 있어 바다낚시는 물론 소라, 미역, 보말 체험을 할 수 있다. 또한 천제연폭포를 비롯해 송악산, 안덕계곡, 소인국테마파크 등의 다양한 관광지가 인접해 있어 편리한 여행이 가능하며, 약 6000㎡의 잔디밭과 유채꽃밭이 조성되어 있어 가족 및 커플 단위의 방문객이 많이 찾고 있다. 제주도 서귀포 중문단지 인근 ‘풀향기 휴양 펜션’은 현재 예약 확정을 한 고객들에게 관광지 할인 쿠폰 증정 행사를 시행하고 있으며 자세한 사항은 홈페이지 및 전화로 문의가 가능하다. 전자신문인터넷 이민우 기자 (lmw@etnews.com) 핫뉴스 in LIFE 1 송가인 전국투어 콘서트, 올해 남은 개최지는 어디? 2 “송가인, 먹는 것에 진심…美 투어 한식 먹어 살쪄”…정다경 ‘깜짝 폭로’ 3 송가인, 32년전 사진 공개..."꼭 그런 자세로 찍어야만 했니" 4 '파격 변신' 임영웅, 무슨 일 있었나? 5 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 사이버위협과 랜섬웨어, 공격 당하기 전에먼저 찾아내서 대응하세요- 특급 위기관리 방안 전수 하나의 플랫폼에서 모든 협업이 다 되는 Zoom 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
-  </si>
-  <si>
-    <t>제주도, 중국스포츠용품박람회서 골프관광 세일즈 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 중국스포츠용품박람회서 골프관광 세일즈 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 중국스포츠용품박람회서 골프관광 세일즈 오미란 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.12 14:19 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회, 골프업계 관계자로 구성된 공동 유치단은 오는 22일부터 25일까지 중국 복건성 푸저우시에서 열리는 제34회 중국국제스포츠용품박람회에서 골프관광 세일즈에 나선다.공동 유치단은 이번 박람회에서 B2B, B2C, 홍보물배포, 소비자 이벤트 등을 실시, 박람회 참가 주요 골프업계 및 기관단체, 동호회 등과 인적 및 협력네트워크를 구축해 골프관광객 유치기반을 마련한다는 계획이다.특히 중국 복건성 지역 골프협회와 골프전문여행사 등 골프관련 기관.단체 및 업계를 직접 방문해 세일즈를 실시하는 등 실질적인 골프관광객을 확보하겠다는 포부다.제주도 측은 "블루오션 골프관광 시장인 중국 시장을 개척하기 위해 민관공동 유치단을 구성해 지난해 상해 지역 등에 이어 이번엔 중국 복건성 지역을 타켓으로 집중 공략할 것"이라며, "중국지역 신규 골프수요를 창출할 수 있도록 노력하겠다"고 밝혔다.&lt;헤드라인제주&gt;&lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 골프동호회, 4월 친선대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회, 4월 친선대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회, 4월 친선대회 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.06 17:38 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 정양훈)는 5일 에버리스골프&amp;리조트에서 회원사 임직원 및 가족 등 동호회 회원 50여명이 참가한 가운데 4월 친선 골프대회를 개최했다.이날 대회 결과 강행수 무성수산 대표가 우승을, 이승재 태백산 대표가 메달리스트의 영예를 얻었다. 이상호 부경축산 대표는 준우승을 차지했다.관광협회 관계자는 "앞으로도 지속적인 친선골프대회 개최해 제주도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획이다"고 말했다.&lt;헤드라인제주&gt;&lt;홍창빈 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 고객감동 '찾아가는 친절교육' 실시 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 고객감동 '찾아가는 친절교육' 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 고객감동 '찾아가는 친절교육' 실시 기자명 고병수 기자 입력 2016.04.05 17:20 수정 2016.04.05 17:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 친절교육을 실시하는 모습. (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)와 제주도인재개발원(원장 김영주)은 제주 관광 만족도 제고를 위한 '찾아가는 도민 친절교육'을 4일부터 5일까지 양일간 제주웰컴센터에서 실시했다고 밝혔다.친절 교육은 道관광협회가 '제주 관광의 질적성장' 실현 사업의 일환으로 친절 서비스 교육 전문 성정화 CS강사를 초빙해 도내 관광사업체 종사자를 대상으로 대고객 서비스 제공을 위한 전략적 특강으로 진행했다.특히 이번 교육에는 제주 공항·만에서 입도 관광객을 처음 맞이하는 종합관광안내소 직원들도 전원 참석했다.도 관광협회는 친절교육을 통해 오는 2018년까지 '한국방문의 해'에 'K스마일 캠페인' 동참 확대와 국내외 관광객맞이 인사, 미소 등 응대 방법 및 관광안내 등에 대한 친절서비스 실천 방안 등 제주관광 고품격 대고객서비스 제공으로 이어질 것으로 기대하고 있다. 협회 관계자는 제주 재방문 관광객 증대 및 글로벌 수준의 제주관광 환대역량 강화를 위해 제주를 찾아오는 관광객들에게 고객감동 서비스 제공의 중요성을 강조했다.이어 "앞으로도 친절 서비스 제고를 위한 관련 교육 등을 지속 실시할 계획"이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.04 12:15 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한국은행 제주본부(본부장 하근철)는 제주특별자치도 및 제주관광공사(사장 최갑열)와 함께 4일부터 약 2주간 '제주 관광통계 개선을 위한 워킹그룹' 회의를 개최하고 본격적인 활동을 개시한다고 밝혔다.이들 3개기관은 지난해 2월 '제주 관광통계 개선을 위한 TF팀'을 구성해 총 6차례에 걸쳐 논의를 진행해 왔는데, 이 결과 한국은행의 관광통계 추계방법을 제주자치도와 공유하기로 합의하고 이번에 워킹그룹을 구성하기에 이르렀다고 설명했다.워킹그룹 회의에서 한국은행 제주본부는 국민소득통계 추계방식인 생산접근법을 활용한 관광통계 추계방법을 자치도 및 제주관광공사와 공유할 계획이다.관광수입 통계를 비롯하여 관광산업의 질적 성장을 보여주는 업종별 성장률, 부가가치 요소소득, 고용효과 등에 대한 추계방법도 제시할 예정이다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제19회 제주도 관광기념품 공모전 개최...출품 조건은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제19회 제주도 관광기념품 공모전 개최...출품 조건은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 문화 제19회 제주도 관광기념품 공모전 개최...출품 조건은? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.03 07:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주를 방문한 관광객들이 제주여행의 추억을 간직할 수 있도록 하고 관광기념품 개발 촉진을 위해 '제19회 제주특별자치도 관광기념품 공모전'을 개최하고, 오는 7월25일부터 8월3일까지 출품작을 접수받는다고 3일 밝혔다.올해 공모전에서는 공모분야를 확대해, 제주의 문화 또는 관광지 등의 특성을 나타내는 일반기념품 분야와 해녀의 특성을 나타내는 테마기념품 분야로 구분해 진행된다.관광객들이 구입할 수 있는 부담 없는 크기와 가격을 위해 출품조건도 종전 60x60㎝ 크기를 30x30㎝로 개선하고, 가격도 50만원에서 20만원으로 조정했다.제주자치도는 응모된 작품을 중심으로 심사를 진행해 일반기념품 분야와 테마기념품 분야를 합해 총 35점의 수상작을 선정할 계획이다.또 수상작에 대한 상품화가 이뤄질 수 있도록 저작권 보호, 디자인 보호 등 지식재산권 등록에 따른 출원비를 지원하기로 했다.자세한 내용은 제주특별자치도관광협회 홈페이지(www.visitjeju.or.kr)를 참조하면 된다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>[시선강탈] '배틀트립' 심형탁, LED 연꽃 있는 제주도 선운정사 관광 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 [시선강탈] '배틀트립' 심형탁, LED 연꽃 있는 제주도 선운정사 관광2016. 04.24(일) 08:20 [티브이데일리 이윤민 기자] '배틀트립'에서 심형탁이 선운정사를 찾아 아름다운 경치를 즐겼다. 23일 밤 방송된 KBS2 예능프로그램 '배틀트립'에서는 '비행기 타고 떠나는 1박 2일 최저가 여행'을 주제로 걸그룹 EXID의 하니와 솔지, 배우 심형탁과 그룹 쿨의 이재훈이 각각 팀을 이뤄이 떠났다. 이날 심형탁은 제주도의 푸른 밤을 볼 수 있는 선운정사를 찾았다. 실제 별똥별이 쏟아지는 아름다운 야경은 압권이었다. 또한 선운정사는 LED 연꽃과 조명을 더한 불상으로 아름다운 풍경을 자랑했다. 무엇보다도 이 곳의 입장은 공짜로 심형탁의 만족감을 배가시켰다. [티브이데일리 이윤민 기자 news@tvdaily.co.kr / 사진=KBS2 방송화면 캡처] 기사제보 news@tvdaily.co.kr        이윤민 기자의 다른 기사 보기 [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→춘사영화제 불참'마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [이슈&amp;톡] 뒤늦게 연애리얼리티 열풍 합류한 디플, 기대와 우려… 열애설 수습 나선 박민영, 석연치 않은 해명에 등돌… '불타는 트롯맨' vs '미스터트롯2', 패널 눈치… 코인 자본 흡수한 K-컬처 시장의 빛과 그림자 [엔… 두나무X하이브·YG플러스 만남, K-팝 새 시장 창… '작은 아씨들' 엄기준 자살→김고은 70… 결혼 앞둔 지연♥황재균, 애정 가득 헬스… '황금가면' 이중문, 나영희에 일침 "S… '작은 아씨들' 남지현·위하준, 엄기준 … 김선호 미공개 사진 대방출, 밝은 미소 … "너무 무례" 박은지, 늦은밤 경비실 인… '갑상선 유두암 완치' 박소담, 라디오 … [TD포토+] 김예원 '화제의 수리남…[TD포토+] 소연-이청아-서현 '불… 러시아 래퍼, 푸틴 '동원령'에 반발→극단적 선택 두아 리파X트레버 노아, 열애설 부인 "… 두아 리파, 11살 연상 유명 코미디언과… 美 유명 래퍼 쿨리오 사망 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
+    <t>제주도, 생태관광육성위원회 위촉 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:13 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 생태관광육성위원회 위촉 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 생태관광육성위원회 위촉 지화 승인 2016.04.28 11:19 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도지사는 4. 28(목) 14:00 도청 회의실에서 제주특별자치도 생태관광육성 위원회 신규 위원에 대한 위촉장을 수여하였다. 지난 해 10월, 생태관광의 트렌드를 반영하고자 전국 최초로 「제주특별자치도 생태관광 육성 및 지원에 관한 조례」가 신설되었고, 규정에 따라 신규 조직된 본 위원회는 위촉직 위원 14명, 임명직 위원 4명, 총 18명으로 구성되었으며, 위촉직 위원은 관련 조례에 의거, 생태관광지역협의체, 시민단체, 환경단체, 관광 및 생태관광 관련단체, 학계 및 전문가 등으로 구성되었다. 임기는 2년이다. 생태관광육성위원회는 앞으로 생태관광육성 기본계획, 자원조사, 생태관광지역 지정 및 프로그램 인증 등에 대한 사항을 심의하고 자문하는 역할을 수행하게 된다. 아울러, 제주특별자치도에서는 오는 5월중 생태관광 관련 비영리법인 또는 민간단체에 생태관광지원센터 설치, 운영에 따른 민간위탁을 추진하여, 제주 생태관광 자원조사, 프로그램 개발 및 전문인력 양성, 주민역량강화 프로그램 기획과 사업 컨설팅을 추진하게 된다. 한편, 제주자치도지사는 위원들에게 “제주다운 생태관광 육성정책이 잘 만들어져서 제주의 역사, 문화, 자연의 아름다움을 알리고 지속가능한 관광이 자리매김할 수 있도록 위원회에 큰 역할을 기대한다”고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’ 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도의 성주참외 홍보관 성과…시식한 중국인 관광객 호평 로고 사회 지면보기 구독신청 기사제보 로그인 회원가입 | 유튜브 페이스북 전체보기 사회일반사건사고복지·노동보건의료환경반려동물 검색 오피니언사설기자칼럼전문가칼럼기고 사회사회일반사건사고복지·노동보건의료환경반려동물 정치정치일반대통령·중앙행정대구·경북 행정대구·경북의회국방·북한 경제경제일반증시·금융부동산자동차취업·창업IT·모바일 스포츠스포츠일반야구축구농구·배구·핸드볼골프 문화문화일반공연·전시책운세기타 건강건강일반병원소식질환 영상영상뉴스송국건의혼술이지핏부동산공부방 위클리포유위클리포유일반여행/레저위클리영화패션·뷰티푸드칼럼 에듀포유대학·입시중·고등초등·유아대구경북교육청에듀포유일반 포토 포토뉴스 지역뉴스 경북동부 경북중부 경북북부 대구근교 대구 교육/과학교육과학 국제국제일반미국일본중국유럽 동정동정일반결혼부고알림인사 기획/특집기획/특집 연재 연재 시민기자시민기자 연예연예일반방송영화 웹툰웹툰플레이툰 독자투고 독자투고 기사제보 공지사항 x 검색버튼 제주도의 성주참외 홍보관 성과…시식한 중국인 관광객 호평 석현철 | 입력 2016-04-30   |  발행일 2016-04-30 제8면 |  수정 2016-04-30 인쇄 글자작게 글자크게 카카오톡 페이스북 트위터 카카오스토리 전체 네이버밴드 네이버블로그 [성주] 참외 조수익 5천억원 달성을 목표로 삼은 성주군이 참외의 중국진출에 행정력을 집중하고 있다. 성주군은 지난해 4월 중국인 관광객이 많이 찾는 제주도 바우젠 거리에 성주참외 홍보관을 건립했다. 중국인의 입맛을 사로잡아 성주참외의 중국시장 진출을 용이하게 한다는 전략이다. 홍보관 건립 1주년을 맞이한 지난 26일 제주도 바우젠 거리에서는 산지 직송된 신선한 성주참외 시식행사를 비롯해 참외나눠주기 등 다양한 행사가 열렸다. 이날 군은 제주관광협회와 업무협약을 체결하고 제주도 내 성주참외의 홍보를 더욱 강화하기로 했다. 현재 한·중 FTA 협상에 참외는 수출을 위한 검역기 통관불허 품목으로 묶여있다. 이에 군은 경북도와 더불어 참외가 통관불허 품목에서 제외될 수 있도록 외교력을 집중하고 있다. 문제는 참외를 풀면 또 다른 품목을 중국에 내줘야 하기 때문에 참외의 중국수출은 험난한 과정이 예고돼 있다. 하지만 성주참외는 전국 생산량의 70%가 집적화되어 있어, 수출을 위한 공격적인 판로 개척과 품질의 세계화, 친환경 자원화 등이 용이한 장점을 갖고 있다. 특히 중국인의 경우 황금색과 숫자 8을 좋아해 8개들이 노란색의 소포장 참외는 많은 인기를 모으고 있다. 군은 홍보관 건립 이후 최상급의 참외만을 고집하며 제주도민과 제주도를 찾는 외국인 관광객에게 시식홍보 행사를 펼쳐왔다. 그 결과 ‘최고의 맛, 최고의 품질을 가진 최고의 참외고장’임을 입증시켰고, 특히 성주참외를 구입해 귀국하고 싶다는 중국인 관광객의 호평까지 이끌어내는 성과를 얻었다. 석현철기자 shc@yeongnam.com 영남일보(www.yeongnam.com), 무단전재 및 수집, 재배포금지 사회인기뉴스 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적'11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 영남일보TV 라이브리댓글 작성을 위해 JavaScript를 활성화해주세요. 기획 더보기 원자재값 급등·반도체 핵심원료 공급불안정…자원무기화·탄소중립화 시대 대응 방안은? [대구의 미래 청년기업 .9] 스포츠 기업 '디에스그룹'…은퇴 체육인 새로운 진로 개척 '인생 2모작' 돕는 사회적 기업 [인구절벽시대 우리 지역 우리가 지키자 .10] 옛 가야대 고령캠퍼스 현주소…대학촌 폐업·공실 사태로 슬럼화 시민사회는 지금 더보기 "녹조 창궐 영주댐, 환경부 불법 담수 그만" 대구 참여연대 "들러리 대구시의회 규탄" Remember! 대구 경북 디아스포라 더보기 대구 경북 아픈역사의 현장 더보기 영남일보TV 더보기 [영남일보 창간 77주년 축하인사] 유승민 국민의힘 전 의원 많이 본 뉴스 최신 주간 월간 원희룡 장관 이번엔 경산 방문...보수 텃밭 다지기 벌써 시동? 1 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적' 2 '업무수행 잘한다' 홍준표 대구시장 53.6%-이철우 경북도지사 58.2% 3 [속보] 제1036회 로또 1등 당첨번호 2, 5, 22, 32, 34, 45 4 코로나에 첫 스텝 꼬인 사자, 재계약 베테랑 부진 겹쳐 '털썩' 5 기준금리 공포에 벌벌 떤다…영끌족 "어떡하나" 멘붕 6 만원 관중 앞 '유종의 미' 거둔 삼성...2022시즌 한국프로야구 7위로 마무리 7 11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 8 홍준표 대구시장 "시·도지사가 광역 부단체장 천거할 수 있도록 해달라" 9 추경호 경제부총리, 5개월 만에 지역구 공식 방문…군민들 '환호' 10 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 1 '나는 돌아가고 싶다' 72년간 썩지 않은 참전용사 군화…칠곡 572고지에서 발견 2 대구 미분양 8천가구 넘어 '전국 최다'…거래절벽 심화 3 대구시, 정부 규제개혁 차원 '대형마트 주중 휴무' 시범실시 추진 4 오에스피·탑머티리얼 공모주 첫날 경쟁률, 에스비비테크 오전 11시 현재 경쟁률 5 오에스피·탑머티리얼 공모주 첫날 오후 1시 경쟁률은? 6 서른 하나 서울토박이가 경북 상주서 양조장 차렸다 7 유승민, 범보수 대권 적합도 '깜짝 선두'…경쟁 주자들 견제 나서 8 구미산단 외투단지 LCD용 광학필름 제조업체 화재…대응 2단계 발령 9 민선 8기 출범 100일, 대구시정에 대한 시민 평가는? 10 '리플' 7일간 47%급등 왜?…비트코인 1만9000달러 회복 1 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 2 대구경북통합신공항 민간공항 활주로 길이 3.8㎞, 시간당 50회 이착륙 목표 3 날개꺾인 대구국제공항...일본.대만 노선 없어 시민들 김해로 4 '금호강 르네상스' 100리 연결 레저공간 조성…지속가능한 금호강으로 '글로벌 내륙수변도시' 대구 추진 5 대구도시철도 순환선 'AGT 방식' 검토…노선 재점검 가능성도 6 대구도시철도 순환선의 방향은?…유력 'AGT방식' 특징·향후 과제는 7 [속보] 대구 수성구·포항 남구, 조정대상지역 해제 8 [단독-포토뉴스] 국민의힘 이준석 전 대표 포항 수해 복구 봉사활동 9 대구행복페이 올해 예산도 모두 소진…연말까지 충전 안돼 10 오늘의운세 더보기 &gt; 닭띠 10월 11일 ( 음 9월 16일 )(오늘의 띠별 운세) (생년월일 운세) 영남생생 News 안동시, 노인맞춤돌봄서비스 효자 노릇 '톡톡' 시리즈 아이콘 안동 하회마을 선유줄불놀이 화려한 불꽃 매력 발산 시리즈 아이콘 대구본사 : 대구광역시 동구 동대구로 441(신천동 111번지) Tel. 053-756-8001 Fax. 053-756-9011 경북본사 : 경상북도 안동시 풍천면 수호로 59 우대빌딩 4층​ Tel. 054-857-9393 Fax. 054-857-8602 서울지사 : 서울특별시 중구 세종대로 124 프레스센터 11층 Tel. 02-738-9815 Fax. 02-738-8005 인터넷신문등록 : 대구 아00221 등록일자 : 2017.05.23 발행인 · 편집인 · 인쇄인 : 노병수 사업자등록번호 : 502-81-25414 법인명 : (주)영남일보 대표자 : 노병수 푸터로고 회사소개 개인정보취급방침 외간인쇄 구독신청 광고안내 청소년 보호정책(책임자 : 김기오, 서용덕) 언론 윤리 강령 신문윤리위 서약서 공정언론 편집규약 고충처리인 영남일보 뉴스를 만나보세요 페이스북 트위터 카카오스토리 유튜브 로그인 ㅣPC버전 Copyright ⓒ 2019 yeongnam All right reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '제주의 재발견' 영상 공모전 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, '제주의 재발견' 영상 공모전 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, '제주의 재발견' 영상 공모전 개최 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.26 15:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 '하이 제주(Hi! Jeju), 제주의 재발견'이라는 주제의 영상 공모전을 개최한다.이번 공모전은 드론과 UCC 2개 부문에 걸쳐 시행된다. 드론 영상으로는 도내에서 처음으로 개최되는 것으로 제주의 숨겨진 명소와 자연 절경, 전통 문화 등 제주의 참 모습과 숨은 매력을 널리 알리는데 목적을 둔다.특별한 나만의 제주 여행, 제주의 독특한 전통문화 ,제주의 절경 등을 담은 제출 작품은 제주여행정보포털인 하이제주(www.hijeju.or.kr)을 통해 소개 될 예정이다.심사를 거쳐 총 16팀의 수상자를 선정하며 수상자에게는 노트북, 태블릿pc 뿐만 아니라 제주여행온라인마켓인 탐나오(www.tamnao.com)의 여행상품권을 지급한다. 응모기간은 25일부터 오는 5월 30일까지로 참가신청서와 함께 작품 영상을 우편 또는 방문 제출하면 된다. 보다 자세한 내용은 제주도관광협회 온라인마케팅2팀(전화 741-8779)로 문의하면 된다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 직영 관광지 입장료 인상 가시화 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 직영 관광지 입장료 인상 가시화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 직영 관광지 입장료 인상 가시화 기자명 강승남 기자 입력 2016.04.26 18:41 수정 2016.04.26 19:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도, 28일 적정 입장료 산정 용역 주민설명회연 120억 세수 증대…관광경쟁력 약화 지적제주도가 공영관광지 적자해소와 세외수입 확대를 위해 일부 관광지의 입장료를 올릴 것으로 전망된다. 이에 대해 관광업계 등은 공영관광지 입장료 인상으로 제주관광 경쟁력 약화라에 대한 우려의 목소리가 나오고 있다.제주도는 오는 28일 오후 2시 제주발전연구원 대회의실에서 '제주도 공영관광지 적정입장료 산정 연구' 주민설명회를 개최한다고 26일 밝혔다.제주도에 따르면 지난해 도내 유료 공영관광지 30곳(제주도 12·제주시 6·서귀포시 12) 가운데 지난해 기준 18곳(60％)이 적자를 기록했다. 흑자를 낸 곳은 12곳에 불과하다.성산일출봉과 만장굴 등 자연관광지는 흑자를 내고 있지만 돌문화공원과 서귀포감귤박물관 등 시설관광지는 대부분 만성 적자에 허덕이고 있다.시설관광지인 경우 입장객 수도 적은데다 운영비·인건비가 자연관광지에 상대적으로 많이 들어가기 때문으로 분석된다.이에 따라 도는 지난 10월 4370만원을 들여 제주발전연구원에 이번 용역을 의뢰했다.지난 3월 중간보고 자료에 따르면 공영관광지의 입장료를 현재와 비교해 50~100% 인상할 경우 연간 64억~128억원의 세수가 증가할 것으로 예상하고 있다.하지만 용역진이 일부 시설관광지의 입장료를 현재보다 많게는 10배 가까이 올리는 방안을 제시하면서 관람객 감소는 물론 제주관광 비용 상승이 우려된다고 지적도 제기되고 있다.도 관계자는 "이번 주민설명회에 도내 사설관광지와 숙박업, 여행사 등 관광요금과 관련 있는 업계, 주민들의 많은 참여를 바란다"며 "최종보고회 등을 통해 공영 관광지 입장료 인상 여부를 결정할 방침"이라고 밝혔다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 옆 ‘더 바른’ 오피스텔 분양 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 제주도 중문관광단지 옆 ‘더 바른’ 오피스텔 분양 이다연 기자 입력 : 2016.04.22 17:25:33   수정 : 2016.04.22 17:25:39 제주 중문지역 ‘더 바른’ 오피스텔 하이스트디앤아이는 22일 제주 중문지역에서 공급하는 ‘더 바른’ 오피스텔의 모델하우스를 열고 본격적인 분양에 나섰다고 이날 밝혔다. 단지가 들어서는 중문지역은 제주도 관광 단지와 골프장들이 가깝고 리조트 조성 사업이 활발한 곳으로 배후 수요가 풍부하다. 해당 단지는 서귀포시 대포동에 들어서며 2개 동, 총 80실, 전용면적 61.95㎡, 35.65㎡ 2개 타입으로 이뤄졌다. 시스템에어컨, 세탁기, 냉장고, 제습기 등 풀옵션을 제공한다. 단지 인근에 중문초, 중문중, 서귀포 체육센터, 농협 하나로마트, 제주 국제커벤션센터, 중문관광단지 등이 있다. 단지 내부는 필로티 설계로 1층 벽을 없애고 기둥으로 이뤄진 주차장으로 설계했다. 홍보관은 서귀포시 중문동 1920-1번지 중문로터리 2층에 있고 2017년 1월 입주 예정이다. [디지털뉴스국 이다연 인턴기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #제주도#제주 오피스텔#중문관광단지 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 29분"나도 내 집 없는데"…외국인 국내 아파트 3만채 매입   1시간 27분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   18시간 57분감사원 국감두고 여야 기싸움…10분만에 '정회'   1시간 19분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 제주도 중문관광단지 옆 ‘더 바른’ 오피스텔 분양 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "제주관광포럼 제1차 운영위원회의" 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, "제주관광포럼 제1차 운영위원회의" 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, "제주관광포럼 제1차 운영위원회의" 개최 기자명 고병수 기자 입력 2016.04.25 16:42 수정 2016.04.25 16:43 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회(회장 김영진)는 지난 22일 제주웰컴센터 썬큰대회의실에서 관광관련 학계 및 업계 전문가 등이 참석한 가운데 '2016 제주관광포럼 제1차 운영위원회의'를 개최했다고 25일 밝혔다.이번 회의는 2016 제주관광포럼의 내실있는 운영과 발전 방안을 논의를 하기 위한 자리로 총 10명의 운영위원이 위촉됐으며 공동대표 겸 운영위원장에는 제주대학교 오상훈 교수가 맡게 됐다.회의 결과 제12차 제주관광포럼은 6월 중순 경 ‘(가칭)새로운 법제도 환경변화에 따른 관광업계의 대응전략’을 주제로 진행하기로 결정됐으며, 도내․외 전문가가 참석해 열띤 토론을 벌일 예정이다. 한편 제주관광포럼은 지난 2012년 9월 27일 창립돼 400여명의 회원으로 구성됐으며 제주관광의 현안과 제주관광 경쟁력 강화를 주제로 11차에 걸쳐 개최한 바 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 '관광의 질' 높인다…14개 중점과제 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 '관광의 질' 높인다…14개 중점과제 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 '관광의 질' 높인다…14개 중점과제 추진 송고시간2016-04-20 20:02 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 한 해 1천만명이 넘는 관광객이 찾는 '관광의 섬' 제주가 관광시장의 질적 성장을 위한 대책을 마련했다. 제주도는 관광 마케팅 전략변화와 교통체계 개선 등 14개 중점 과제로 이뤄진 '관광 질적 성장 기본계획'을 마련, 이달부터 추진한다고 20일 밝혔다. 14개 중점 과제는 마케팅 전략변화 추진과 더불어 관광정보 안내 개선, 쇼핑 및 상품개발, 교통체계 개선, 환대서비스 제고, 관광품질 고급화 등이다. 광고 관광개발사업, 지역연계 융·복합화 관광, 환경친화, 관광인력 양성, 위기관리, 기금 운용 효율화, 관광 조사·분석 체계화도 포함됐다. 14개 중점 과제는 질적 성장정책을 만들려고 올해 초 도가 기준으로 세운 5대 질적 성장 관리지표에 따라 마련됐다. 질적 성장 관리지표는 관광객 체류일수, 1인당 평균 지출비용, 관광객 만족도, 여행행태, 마케팅 다변화 지수다. 도는 중점 과제에 따라 86개의 세부 사업을 정했다. 이 중 48개 사업은 1∼2년간의 단기과제로, 38개는 3년 이상의 장기 과제로 선정해 단계적으로 추진키로 했다. 김태엽 도 관광정책과장은 "제주관광 문제점에 대한 종합적 접근과 분석을 통해 과제를 선정하고 이를 추진력 있게 실행할 수 있도록 세부정책을 수립했다"고 말했다. 도는 이 과제들을 제주 관광 육성을 위한 '관광진흥계획(2014∼2018)'에도 반영한다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/04/20 20:02 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회·성주군, ‘맞손’ &lt; 일과 사람들 &lt; 도민광장 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회·성주군, ‘맞손’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 도민광장 일과 사람들 제주도관광협회·성주군, ‘맞손’ 기자명 제주도민일보 입력 2016.04.27 15:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 공동마케팅, 온라인 마켓 ‘탐나오’홍보 [제주도민일보] 제주도관광협회(회장 김영진)과 성주군(군수 김항곤)이 손을 잡고 공동 마케팅을 다짐했다.제주도관광협회는 26일 연동 바오젠거리에서 성주군과 전략적 상생 공동 협력마케팅을 통해 영남권 시민들이 제주여행시 관광협회에서 공익적으로 운영하고 있는 제주여행 전문 온라인 마켓 ‘탐나오’를 홍보하고 이용하는데 적극 협력키로 했다. 제주도민일보 domin@jejudomin.co.kr 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광 명소 된 소길리 이효리집, 이젠 집만 `덩그러니` : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 제주도 관광 명소 된 소길리 이효리집, 이젠 집만 '덩그러니' 디지털콘텐츠팀 inews@kookje.co.kr |   입력 : 2016-04-25 14:49:21 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 인기 연예인 이효리가 관광객의 잦은 방문으로 제주도 소길리를 떠났다. 사진=연합뉴스25일 한 매체에 따르면 이효리는 제주도 소길리 생활을 접고 다른 곳으로 몰래 이사를 간 것으로 보인다. 많은 관광객이 소길리로 몰렸기 때문인 것으로 풀이된다.이효리는 2003년 가수 이상순과 결혼한 후 조용한 삶을 위해 제주도 소길리에 정착했었다. 이후 자신의 블로그와 방송, 잡지 등을 통해 제주도 생활을 공개했다. 하지만 많은 관광객이 찾아오면서 이효리의 소길리 자택은 몸살을 앓았다. 소길리에 남겨진 이효리집 대문에는 수많은 보안장치와 경보음 장치가 설치되어 있다. 많은 관광객의 방문이 이효리에게 얼마나 큰 스트레스로 작용했는지 알 수 있다.결국 이효리는 제주도 생활을 공개했던 블로그를 중단했다. 이어 "저희 집은 관광코스가 아닙니다"라는 글을 남기기도 했다. 모 매체에 의하면 이효리는 조용하면서 자유로운 삶을 원했지만 자신의 집이 관광 명소가 되고 주변 땅값에 영향을 미치자 부담을 느낀 것으로 알려졌다. 제주도 부동산 관계자는 "이효리가 소길리를 떠났지만 아직까지 집을 내놓진 않은 것으로 안다"고 말했다. 이어 "이효리는 제주도 소길리를 떠나 새로운 곳에 터전을 잡은 것으로 알려지지만 그곳도 입소문이 나면서 땅값이 오르고 있다"고 전했다.한편, 이효리는 지난 3월 말 남편 이상순과 함께 채식 식당 일일 셰프로 참여한 것으로 밝혀진 뒤 최근 근황은 전해지지 않는다. 김동현 에디터 ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] 관련기사 국내연예 엑소 시우민, 솔로 데뷔로 터닝 포인트 블랙핑크, K팝 걸그룹 최초 ‘빌보드 200’ 정상 등극 블랙핑크 ‘셧 다운’ 글로벌 차트 점령 컴백 김재중 “6년 기다린 팬들 위한 선물” ‘가솔린’처럼…키, 폭발한다 故송해 후임은 김신영…전국노래자랑 MC 발탁 블랙핑크의 귀환…‘핑크 베놈’ 신드롬 콘셉트 장인 더보이즈, ‘위스퍼’로 돌아왔다 ‘회장님’ 전문 배우 김성원 씨 별세…향년 85세 ‘괴짜’ 지코 돌아왔다 ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 1이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 2野 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년간 부산시 해킹시도 건수 서울보다 많다 7BNK 회장이 아들이 재직중인 한양증권에 채권 몰아줬다는 의혹 제기 8北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 9유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 10북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 8부산시, 관광객 전용 동백전 출시 9우대빵부동산 인력 채용 나선다 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10지난주 부산 코로나19 확진 직전주 보다 20% 이상 ↓ 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [핫이슈] 연예인 결혼과이혼 ‘피겨여왕’ 김연아, 10월 성악가 고우림과 웨딩마치 ‘톱스타 커플’ 현빈-손예진 웨딩마치 클론 구준엽, 대만 배우 쉬시위안과 백년가약 페퍼톤스 이장원·가수 배다해 11월 백년가약…올초 첫 만남 동방신기 최강창민, 9월 결혼 “인생 함께하고픈 사람” ‘자유영혼’ 류승범, 외국인 여자친구와 결혼 “예비신부 곧 출산” 소지섭, 17살 연하 조은정과 결혼… 혼인신고 마쳐 DJ DOC 이하늘, 결혼 1년 4개월만 이혼 이병주 타계 30주기…새로 읽는 나림 명작 권력쟁탈 얽힌 연애와 역사…감각적 전개에 대중은 카타르시스 그 장면 여기서 찍었네 부울경 촬영명소 전통 차사발 본고장…영화 ‘취화선’ 등장해 세계에 이름 알리다 기획시리즈 국립 인간극장 그 장면 여기서 찍었네 부울경 촬영명소 박현주의 그곳에서 만난 책 부산형 오페라하우스 만들자 서부국과 함께하는 명작 고전 산책 수장고에서 찾아낸 유물이야기 이동순의 부산 가요 이야기 이병주 타계 30주기…새로 읽는 나림 명작 정익진 시인의 '무비셰프' 최원준의 음식 사람 박현주의 신간돋보기 [전체보기] 유불선 사상 아우른 ‘열자’ 外 관용 가치 입힌 독서와 토론 外 서상균의 그림으로 책 보기 [전체보기] 인간의 순리 신간 돋보기 [전체보기] 어린이를 위한 ‘진짜’ 놀이터 청력 잃고 겪게 된 차별의 벽 이 한편의 시조 [전체보기] 기도, 넘치는 날 /김용태 가로등 /전용신 이원 기자의 드라마 人 a view [전체보기] ‘수리남’의 하정우 ‘이상한 변호사 우영우’ 박은빈 이원 기자의 영화 人 a view [전체보기] ‘공조2: 인터내셔날’의 현빈 ‘비상선언’ 이병헌·송강호 이원 기자의 Ent 프리즘 [전체보기] 건강한 모습으로 연기하는 안성기를 기다리며 한국 영화 대표로 아카데미 가는 ‘헤어질 결심’ 조재휘의 시네필 [전체보기] 치솟는 영화 표값 타당한가 '군함도 감독판' 길이가 아닌 완성도 높은 감독판을 허하라 BIFF 리뷰 [전체보기] ‘지석’ 뭐 볼까…오늘의 TV- [전체보기] 뭐 볼까…오늘의 TV- 2022년 10월 11일 뭐 볼까…오늘의 TV- 2022년 10월 10일 방호정의 컬쳐 쇼크 &amp; 조크 [전체보기] 영화 ‘RRR-라이즈 로어 리볼트’ 힙합 시대의 뮤지컬 ‘해밀턴 Hamilton‘ 오늘의 운세- [전체보기] 오늘의 운세- 2022년 10월 11일(음력 9월 16일) 오늘의 운세- 2022년 10월 10일(음력 9월 15일) 오늘의 BIFF [전체보기] 오늘의 BIFF - 2022년 10월 11일 오늘의 BIFF - 2022년 10월 10일 조해훈의 고전 속 이 문장 [전체보기] 가난한 선비로서 먹는 것도 아까워 한 성호 이익 산속 가을비 풍경을 시로 읊은 유희경 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 일본 관광객 회복 위해 앞장선다 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 21.4℃ 도쿄 24.4℃ 베이징 10℃ 자카르타 27.2℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도·관광공사 일본 관광객 회복 위해 앞장선다 8일 코로나19 신규확진 1만9431명...어제보다 약 3천명 감소 천호엔케어, 하루활력 '레몬생강청' 출시 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도·관광공사 일본 관광객 회복 위해 앞장선다 기사승인 2016. 04. 20. 15:39 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주 장재일 기자 =일본 인바운드 여행업계 간담회0일본인바운드여행업계 간담회 제주특별자치도와 제주관광공사(사장 최갑열)가 일본인 방한시장 부활 분위기에 맞춰 관광업계와 적극적으로 관광시장 살리기에 나서고 있어 귀추가 주목된다. 도와 제주관광공사는 지난 19일 오후 5시 제주웰컴센터 대회의실에서 도내 주요 일본 인바운드 주요 여행사 대표 10여명과 ‘일본 인바운드 업계 간담회’를 개최했다. 이번 간담회는 최근 일본인 방한시장이 지난 2월 전년비 +1.3%를 기록하는 등 회복세로 돌아서기 시작하면서, 일본인 제주관광시장의 조속한 정상화를 위한 활발한 정보공유 및 공동 사업추진을 위해 기획됐다. 간담회에서는 골든위크 등 일본인 관광시즌의 본격적인 시작에 대비한 공사의 일본 마케팅 주요 추진 계획 공유와 일본인관광객 활성화를 위한 업계 의견을 공유하고, 공동사업 추진 등 적극적인 대응을 추진하기 위한 다양한 의견이 논의됐다.특히 일본 방한시장의 긍정적인 분위기에 맞추어 현지 제주관광 수요 창출을 위한 이벤트 개최, 제주관광상품에 대한 광고비 지원 강화, 도내 인바운드 업계의 주요 거래처를 대상으로 한 전국단위 임원진 및 제주상품 담당자 대상 전략회의와 팸투어 개최 등을 도와 공사, 업계가 공동으로 추진하여 제주시장 부활의 훈풍이 될 수 있도록 공동의 노력을 쏟기로 했다. 제주관광공사 관계자는 “최근의 방한시장의 좋은 분위기에 맞춘 시의적절하고 적극적인 대응을 통해 현지 업계에 제주에 대한 신뢰를 회복해 일본인 제주관광시장을 조속히 정상화하고, 일본 관련업계가 그 혜택을 받을 수 있도록 최선의 노력을 다하겠다”고 말했다. 장재일 기자 &gt; jang7466@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 실시간 호남 四通八達 1 미주한인회총연합회, 고창군과 ‘교류방안’ 논의 2 광양시-포스코, 구봉산 정상에 화합·상생 상징물 건립.... 3 부안해경, 해양안전저해사범·인권침해사범 특별단속 실시 4 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 5 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 6 남쪽 산타마을 ‘담양산타축제’...3년만에 열린다 7 ‘전남 음식의 세계화’ 남도음식문화큰잔치 ‘성공’...1.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>주영섭 "제주도 전통시장 활성화 위해 크루즈 연계 관광상품 개발" 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 팜이데일리 마켓in 스냅타임 주영섭 "제주도 전통시장 활성화 위해 크루즈 연계 관광상품 개발" 주영섭 청장, 제주도 동문시장 방문 현장 및 전통시장 활성화 방안 발표 등록 2016-04-14 오후 6:26:38 수정 2016-04-14 오후 6:26:38 가 가 채상우 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 채상우 기자] 중소기업청이 제주도를 방문하는 관광객을 전통시장에 유입하기 위해 주차장 건립, 크루즈관광 상품 등 다양한 지원책을 마련한다. 주영섭 중기청장은 14일 제주도 전통시장 활성화를 모색하기 위해 글로벌 명품시장으로 선정된 제주도 ‘동문시장’을 방문했다. 주 청장은 시장 상인들의 애로사항을 청취하고 격려하는 한편, 시장을 찾은 외국 관광객 및 고객들에게 전통시장을 많이 이용하도록 당부했다. 주 청장은 최근 관광객 급증으로 주차난을 겪고 있는 제주지역 전통시장에 주차장 건립을 약속했으며, 크루즈관광과 전통시장이 연계된 관광상품 개발도 육성하겠다고 밝혔다. 아울러 제주토속 먹거리를 활용한 야시장도 올해 말 개설해 한국의 밤문화 및 정취를 느낄 수 있도록 할 방침이다. 외에도 청정 제주농식품에 관심이 높은 중국 관광객을 위해 동문시장을 적극 활용할 계획이며, 온라인을 통해 제주도 특화상품을 구매할 수 있도록 역직구 쇼핑몰 입점도 추진할 예정이다 .제주지역 알짜배기 수출 품목은 현지화 과정을 거쳐 이베이와 같은 글로벌 오픈마켁과 오프라인 매장 등 해외 유통망에 입점토록 육성 시책을 펼친다. 제주 중소기업 수출지원센터가 중심이 돼 중소기업진흥공단, KOTRA, 무역협회 등 유관기관과 제주특별자치도청 등 지방자치단체와 상호협업을 강화해 해외시장 수출도 극대화할 것이라고 중기청은 전했다. 한편, 이날 오전 주 청장은 수출지원센터에서 제주도 수출기업과 만나 현장 에로를 청취하고 개선 방안에 대해 논의하는 시간을 가졌다. 주영섭 중소기업청장(오른쪽에서 두 번째)이 14일 제주도 수출지원센터에서 열린 수출기업 간담회에서 제주도 수출기업의 판로개척 방안에 대해 이야기 하고 있다. 사진=중소기업청 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 3선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 4“혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 [포토]금리인상에 '영끌'은 옛말...2030 서울 아파트 매입 비중 '뚝' [포토] 김정은, 전술핵운용부대 군사훈련 지도…"대화 필요성 안느껴" 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 5 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 상장사 10곳 중 1곳 주가 1년새 '반토막' 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 10 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 8 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 9 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .“키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 .흉기 위협·강제추행도 집유...아동학대에 관대한 재판부 .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도 국내ㆍ외 관광수요 급증, 분양형호텔 품귀현상 지속되나 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 제주도 국내ㆍ외 관광수요 급증, 분양형호텔 품귀현상 지속되나 입력 : 2016.04.22 12:00:12   수정 : 2016.05.20 17:22:30 관광숙박시설 확충 특별법이 2016년 12월 31일부로 종료된다. 이에 호텔을 분양 받을 수 있는 기회가 많지 않을 것으로 보이는 가운데 최근 제주 윈스토리호텔이 모델하우스를 개관해 분양 중이다. 제주윈스토리호텔은 제주도 서귀포시 내에 있는 호텔이다. 모든사람들이 살고 싶어하는 제주도에 직접거주가 가능한 윈스토리호텔은 타 호텔과 다른개념으로 “호텔위탁 운영도하고 부동산에 직접 임대거래도 가능하고 실입주가 가능하다”. 또한 준공전 계약금에 대한 이자지원 5% ,1년 수익금 선납제, 500만원 보증금제도까지 이보다 더 좋은 제주호텔분양은 없다. 제주도는 우리 모두가 한두번쯤 가본 섬이고.그런데 중요한 것은 제주도가 유독 우리나라 사람만 찾는 섬은 아니라는 거다. 유네스코 3관왕 달성후 유네스코 웹싸이트에 등재 되면서 국내뿐 아니라 국외 관광객이 폭발적으로 증가하게 되었다 그래서 제주도에 제주윈스토리호텔을 비롯하여 다른 호텔들이 들어서는 것이다. 제주윈스토리호텔은 제주도에 이미 1차에서 3차까지 호텔을 완판한 경험이 있는 윈그룹에서 시행하고 또한 운영을 한다. 윈브랜드호텔은 모두가 같은 시행사, 운영사이다. 일반적으로 다른호텔처럼 시행만하고 없어지는 그런 회사가 아니고 모든 윈호텔 브랜드를 (윈스카이호텔)2016년5월, (윈테라호텔1차)2017년2월, (윈테라호텔2차)2017년9월, 직접세우고 운영하고 서비스하는 그런 책임감있는 우리나라 전통호텔브랜드 이다. 또한 자금관리하는 신탁사(한국자산신탁) 예전에는 시행사가 직접자금을 받아서 직접관리하던 때가 있었다. 시행사가 부실하게 되면 그 돈을 모두 날리는 경우가 많았다. 다들 아시는 것처럼 동대문에 굿 모닝시티가 그 대표적인 사례이다. 그 이후로 이제는 신탁법의 의하여 신탁사가 자금의 흐름을 관리하기 때문에 그런 일이 발생할 수가 없다. 윈그룹호텔과 책임준공 도급계약을 체결한 시공사(청산종합건설) 경상북도에서는 1군에 속하며 건설사 신뢰도만 믿고도 다수 계약을 진행했다. 대기업 건축공사 수주를 받아 자체에서 건축을 시공하는 탄탄한 건설회사이다. 아시는 분들은 시행사와 운영사가 같다는 것이 얼마나 중요한 지를 알 것이다. 분양 받았을 때의 조건과 운영 하면서 조건이 같으려면 시행사와 운영사 주체가 같아야 안정적이다. 제주윈스토리호텔은 서귀포에서 가장 땅값이 높은 서귀포 시내에 들어선다. 천지연폭포, 매일올레시장, 서귀포관광미항, 이중섭거리, 정방폭포 등 제주도에 한번쯤 다녀온 사람들은 다 알만한 입지에 들어서는 것이다. 윈스토리호텔 모델하우스에서 아실 서울로 치자면 명동 한복판에 호텔이 들어서는 것과 같다. 2008년 저가 항공이 시작된 후로 제주도 가는 사람이 많긴 많은가 보다 그래서 정부는 제주신공항건립을 작년 말 발표했다. 그래서 작년 제주도 공시지가가 20프로 정도 상승했다 공시지가가 20프로라니까 실거래가는 어마 어마 하다. 앞으로 신공항과 제주 6대프로젝트가 착공하고 완공되면서 제주도 땅값이 수직 상승 할 것이라는 점은 삼척동자라도 다 아는 사실이다 제주도는 땅값뿐만 아니라 집값과 수익성 부동산의 가격이 폭등을 했다. 땅값이 오르니 당연한 결과이다. 제주도 서귀포시 서귀동 318-17번지에 들어서는 호텔 건물은 지하 1층 지상 7층 총 222실 규모로 구성된다. 총 분양가는 1억 초반대부터이며, 실투자금은 3000만원대부터, 매월 87만원 입금. 임대차계약 체결(10년) 보증금/월세 받는 호텔이다. 제주 윈스토리 호텔은 로열티 지불이 없는 순수 국산 브랜드로 제주 호텔 그룹이다 사전예약을 하면 대기 없이 원활하게 모델하우스 관람 및 주차 안내를 받을 수 있고 상담이 가능하다. [매경닷컴][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 30분"나도 내 집 없는데"…외국인 국내 아파트 3만채 매입   1시간 27분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 27분감사원 국감두고 여야 기싸움…10분만에 '정회'   1시간 19분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 제주도 국내ㆍ외 관광수요 급증, 분양형호텔 품귀현상 지속되나 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>"이효리-이상순 제주도 자택서 결국 이사, “관광지 아닌데 왜 자꾸…”"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 사용안함(뉴스속보) 이효리-이상순 제주도 자택서 결국 이사, “관광지 아닌데 왜 자꾸…” 2016.04.14 11:12 [헤럴드경제] 가수 이효리가 결국 이사를 택했다. 끊이지 않고 자신의 집을 찾는 관광객 때문이다. 14일 일간스포츠에 따르면 이효리는 애월 소길리 집을 둔 채 다른 곳으로 거처를 옮겼다.일대 부동산 관계자는 “이구동성으로 이효리가 소길리를 떠난 지 꽤 됐다”고 매체에 말했다. 이효리와 남편 이상순의 집은 MBC ‘무한도전’ 방송을 타면서 큰 화제가 됐다. 이후 이효리가 블로그 활동을 하면서 유명세를 치뤘고, 일대에선 관광명소(?)가 돼 버렸다. [사진=이효리 인스타그램]집이 노출되면서 찾아오는 관광객들 때문에 몸살을 앓았다.이효리는 직접 SNS를 통해 간곡한 부탁을 청하기도 했다. 그는 ‘친애하는 제주도 관광객 여러분. 죄송하지만 우리집은 관광 코스가 아니다. 아침부터 밤까지 하루에도 수십 차례 울리는 초인종과 경보음으로 저희 모두 심한 스트레스를 받고 있다’라는 글을 남긴 바 있다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>:: 월간암(癌) 예방과 투병의 올바른 길잡이 ::봄철 제주도 여행 펜션 선택, 관광지 인근 및 행사 진행여부 파악해야 검색 월간암은 월간암 소개 광고 안내 뉴스 대체요법 현대의학 특집기사 해외암정보 국내암정보 전문가칼럼 업체탐방 에세이 의학상식 건강일반 건강일반 투병수기 암환자요리 만화 산야초 면역세포치료 지난호 지난호 보기 정기구독 신청 정기구독 신청 암커뮤니티 공지사항 원고투고 암!(癌)묻고 답하기 자유수다 생활(식생활,요법) 마음(명상,종교) 쉼터(요양원,병원) 광고 전용 건강일반 투병수기 암환자요리 만화 산야초 면역세포치료 홈 -&gt; 건강일반 봄철 제주도 여행 펜션 선택, 관광지 인근 및 행사 진행여부 파악해야임정예(krish@naver.com) 기자 입력 2016년 04월 21일 17:09분2,338 읽음 제주도를 찾는 관광객이 해마다 늘고 있다. 제주관광공사의 ‘2012 세계 주요 섬 관광지 관광객 수’ 조사결과에 따르면, 오키나와(583만 명), 하와이(799만 명), 발리(895만 명)을 누르고 제주도가 969만 명으로 1위를 차지했으며 2014년에는 1200만 관광객을 돌파했다. 이는 내국인 약 890만 명, 외국인 약 330만 명의 비율로 중국인 관광객이 286만여 명 수준이며, 전년 대비 57.8% 증가한 수치라고 할 수 있다. 여행 전문가들은 “제주를 찾는 관광객들은 앞으로 더욱 증가할 것이다”고 분석했으며, 이어 “끝까지 기분 좋은 여행을 하기 위해서는 숙박 업소 선정이 큰 비중을 차지한다”고 덧붙였다. 이렇듯 숙박 업소를 선정할 때는 비용이나 위치, 인원 등 다양한 부분을 고려해야 하는데, 가장 큰 부분을 차지 하는 것은 바로 관광지와의 거리이다. 제주를 방문하는 여행객들은 보통 자연과 함께 관광을 즐기러 오기 때문이라고 파악된다. 제주도 중문관광단지 일대에 위치한 ‘풀향기휴양펜션’은 이 지역을 찾는 이들이 방문하는 서귀포펜션으로 알려져 있다. 20평 6채, 24평 2채의 삼나무로 독채로 구성된 이곳은 바다조망이 가능한 통유리와 복층으로 구성돼 있는 것이 특징이다. 해당 펜션 주변으로는 약 6000㎡의 잔디밭과 유채꽃밭은 물론 천제연폭포, 안덕계곡, 송악산, 소인국테마파크 등의 다양한 유명 관광지가 인접해 있으며, 바다를 따라 길이 나있는 제주 올레길 8, 9코스가 주변에 있다. 특히 8코스 주변에 위치한 대평리 바닷가에서는 바다낚시를 비롯한 미역, 보말, 소라 체험이 가능해 커플이나 가족단위의 방문객이 많이 찾는다. 제주도펜션으로 알려진 ‘풀향기 휴양펜션’은 현재 예약을 확정해 입실을 앞둔 이용객들에게 렌터카를 비롯한 관광지 할인쿠폰을 증정하고 있으며 이는 전화 및 홈페이지를 이용해 확인이 가능하다. 월간암(癌) 인터넷뉴스 추천 컨텐츠 암환자의 치유를 위한 특별한 하루, ‘암파인(I’m fine)’ 캠프 우리나라 경남에 영남알프스라고 알려진 지역이 있다. 영남 동부 지역에 위치한 1,000m 이상의 산악군으로 태백산맥의 남쪽 끝에 낙동강을 따라서 이루어진 지형인데 울주군 상북면, 경남 밀양시, 양산시, 경북 청도군, 경주시 등 5개의 시군에 걸쳐있는 넓은 산악지이다. 이곳의 지형... 나를 위로하는 방법, 한 가지우리 주위에 대부분의 사람들은 하루하루를 열심히 살아갑니다. 그러나 범죄를 저질러 교도소에서 지내는 사람들도 있습니다. 밝혀지지 않았을 뿐 죄를 저지른 채 살아가는 사람도 있을 것입니다. 우리나라 통계청 자료에서는 전체 인구의 3% 정도가 범죄를 저지르며 교도소를 간다고 합니다. 즉 1... 암투병 관리를 위한 스마트폰 앱, 세컨드닥터 국내에서 암을 진단 받고 투병하는 사람들이 100만 명을 넘고 있다. 과거에 암은 ‘죽음에 이르는 병’으로 인식되었지만 현재는 치료 후 관리로 건강을 회복, 또는 유지할 수 있는 병으로 변화하고 있다. 암 치료에만 집중되었던 지원도 암 생존자들의 정신적인 안정과 경제적인 문제의 해결... 월간암 추천 하루 견과식현대인의 바쁜 아침 간편한 한끼식사, 호두, 아몬드, 땅콩 등 32가지 신선한 견과류, 배고픔을 느낄 때 간편한 간식으로, 바쁜 아침 식사 대용으로 힐링미 - www.medischool.net 전국 암 요양병원 무료 안내 앱 엘가닉 - 문의전화: 1566-6075 암환자 관리 제품 전문기업 - 캔케어, 리치웨이 바이오매트 가피타히보 라파초 - 문의전화: 1833-9113 타히보 효능 위한 저온고압 특허추울 액상화 제품, 정품 타히보 원료 추출물 100% GC셀 - www.gccell.com 글로벌 세포치료제 Bio-Tech Solution Pioneer(BTS), 항암면역세포치료제 세컨드닥터몰 - 암 건강관리 전문샵 암 종류 및 개인 상태에 따른 맞춤형 관리상품 추천 쇼핑몰 고려인삼공사 - 문의전화: 02-862-3992 시베리아 자작나무에서 채취 관리, 러시아 정부가 인증한 고려인삼공사 최상급 차가버섯 추출분말 테라큐민 - 제약회사 '한독'의 고유 브랜드 강황에서 추출한 건강성분 커큐민! 커큐민 체내 흡수율 개선 테라큐민! 로그인 ID/PW 찾기 회원가입 - 월간암 광고문의 sarang@cancerline.co.kr 제호: 월간암 등록번호: 고양,라00080 상호: 주식회사 월간암 대표: 고동탄 사업자번호: 583-88-01841 발행·편집인: 고동탄 주소: 경기도 고양시 일산동구 중앙로 1305-30 일산마이다스 916호(장항동,마이다스빌딩) 대표전화: 031-907-2261 광고문의: 010-3476-1606 팩스번호: 031-907-2269 개인정보 관리자: 구효정(cancerline@daum.net) Copyright Cancerline.co.kr All Right Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 도내 공영관광지 운영평가 실시 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 도내 공영관광지 운영평가 실시 (제주=뉴스1) 고경호 기자					| 2016-04-05 10:19 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 휴일인 21일 제주 서귀포시 성산일출봉이 많은 관광객들로 북적이고 있다.2016.2.21/뉴스1 © News1 이석형 기자 제주도는 공영관광지의 효율적인 운영과 그 평가를 통해 다시 찾고 싶은 공영관광지로 견인하기 위해 ‘2016년 공영관광지 운영평가’를 실시한다고 5일 밝혔다.이에 앞서 제주도는 지난 3월말 ‘제주특별자치도 공영관광지 운영평가위원회(위원장 문성종)’를 열고 금년도 공영관광지 운영평가 계획을 확정했다.공영관광지 운영평가는 성산일출봉 등 도내 공영관광지 30개소를 대상으로 실시한다.주요 평가내용은 △공영관광지 환대서비스 △정보제공 △시설의 이용편의성 △관광객 유치 마켓팅 △운영 개선 노력 등으로, 암행평가와 현장평가, 관광객 만족도 설문조사를 병행해 평가를 수행한다.또 관광객 유입을 위한 자체노력, 전년대비 입장객 및 입장수익 증가율 등 운영개선을 위한 공영관광지 변화노력 등 공영관광지 운영 및 경영개선을 위한 관광객유치 마케팅 부분을 심사항목에 포함, 평가할 계획이다.평가 시기는 오는 5월부터 11월까지 진행되며, 평가결과에 따른 우수공영관광지에 대해서는 평가포상계획에 따른 시상을 하게 된다.평가 결과는 오는 12월 제주도 홈페이지 등을 통해 공표된다.지난해에는 우수관광지로 절물자연휴양림, 제주별빛누리공원, 서귀포감귤박물관, 제주도립미술관 4개소와 우수근무자 3명을 선발, 시상한 바 있다.김태엽 제주도 관광정책과장은 이와 관련, “이번 평가사업의 결과가 공영관광지의 품격과 가치를 높일 수 있도록 환류체계를 구축, 지속적으로 관리해 나갈 계획”이라고 말했다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 복지관광자문위 출범...위원장에 김경범 교수 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 복지관광자문위 출범...위원장에 김경범 교수 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 복지관광자문위 출범...위원장에 김경범 교수 오미란 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.14 09:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 장애인, 노인, 임산부 등 관광약자의 복지 향상을 위한 '제주특별자치도 복지관광자문위원회'가 본격 출범했다.제주도 관광정책과는 지난 12일 제주도청 한라홀에서 제주도 복지관광자문위 위원 위촉식을 갖고 첫 회의를 개최했다.위원회는 당연직 3명을 포함, 제주도의회, 사회복지, 관광, 교통, 건축 분야의 전문적인 지식과 경험이 있는 위촉직 10명 등 모두 13명으로 구성됐다.위원장에는 김경범 제주대학교 사회과학연구소 교수, 부위원장에는 한봉금 중증장애인 직업재활시설 엘린 대표가 각각 선출됐다.이들은 앞으로 2년 동안 장애인, 노인, 임산부 등 이동과 시설이용, 정보접근 등의 제약으로 관광활동이 어려운 관광약자를 위한 접근가능한 관광환경 조성의 기본방향 및 목표, 대상시설 확충, 관광체험 프로그램 개발 등의 자문 및 심의기능을 수행하게 된다.제주도 관계자는 "이번 위원회 구성으로 우리 제주가 관광변화에 유연성 있게 대응하여 관광약자가 불편 없이 관광을 누리고, 복지관광 활성화를 통한 행복관광지로 자리매김 되기를 기대한다"고 밝혔다.&lt;헤드라인제주&gt;&lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 복지관광자문위원회 출범 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 복지관광자문위원회 출범 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 복지관광자문위원회 출범 기자명 강승남 기자 입력 2016.04.13 11:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광약자 위한 관광환경 조성 등 역할 제주도 복지관광자문위원회가 출범했다.제주도는 지난 12일 도청 한라홀에서 복지관광자문위원회의를 열고, 위원들에 위촉장을 수여했다고 13일 밝혔다.올해부터 2년간 활동하게 되는 위원들은 도의회, 사회복지, 관광, 교통, 건축분야에 전문적인 지식과 경험이 있는 위촉직 10명과 당연직 3명을 포함하여 13명으로 구성됐다.이들은 장애인, 노인, 임산부 등 이동과 시설이용, 정보접근 등의 제약으로 관광활동이 어려운 관광약자를 위한 접근가능한 관광환경 조성의 기본방향 및 목표, 대상시설 확충, 관광체험 프로그램 개발 등의 자문 및 심의기능을 수행하게 된다.복지관광자문위원회 위원장에는 김경범 제주대학교 사회과학연구소 교수가, 부위원장에 한봉금 중증장애인 직업재활시설 엘린 대표가 각각 선출됐다.도 관게자는 “이번 위원회 구성으로 우리 제주가 관광변화에 유연성 있게 대응하여 관광약자가 불편 없이 관광을 누리고, 복지관광 활성화를 통한 행복관광지로 자리매김 되기를 기대한다”고 말했다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>서울특별시 미디어재단 TBS 메인메뉴바로가기 본문바로가기 TV FM 95.1 eFM 101.3 뉴스 교통정보 로그인 · 회원가입 · ABOUT TBS 전체메뉴 시작 TV 프로그램소개 편성표 VOD다시보기 TV시청방법안내 FM 프로그램소개 편성표 다시듣기 eFM About the program Schedule AOD Replay Announcements Board 뉴스 지역·시민 교통 세계 인싸이언스 코로나19 분야별 교통정보 주요지역 속도정보 교통정보 전화번호 홈 지역·시민 교통 세계 인싸이언스 코로나19 분야별 전체 수도권 정치 경제 사회 국제 문화·스포츠 뉴스제보 정치 김무성 "제주도 관광 위해 안보 중요...더민주 테러방치 정당" 김호정 neversaytoyou@hanmail.net 2016-04-11 21:25 새누리당 김무성 대표는 "제주의 먹거리 산업인 관광과 서비스업은 안보가 중요한데, 더불어민주당은 안보를 포기하고 테러를 방치하는 정당이 됐다"고 비난했습니다. 김 대표는 오늘(11일) 제주도 서귀포 지원 유세에서 "안보가 흔들리고 관광객 안전이 보장되지 않으면 어느 관광객이 제주도를 찾겠느냐"며 이같이 말했습니다. 김 대표는 "안보 포기 정당, 안보 무지 정당, 안보 무책임 정당인 운동권 정당 더민주에 더이상 제주를 맡겨서는 안된다"면서 "새누리당만이 안보를 지키고, 이에 기초해 경제와 민생을 챙길 수 있다"고 지지를 호소했습니다.이어 "새누리당이 17대 때부터 내리 3차례 제주에서 의석을 얻지 못했다"면서 "그렇게 되면 당정청 회의에서 제주 출신 의원이 목소리를 못 낸다"고 강조했습니다.■ 기사제보 및 보도자료 제공 tbs3@naver.com / copyrightⓒ tbs. 무단전재 &amp; 재배포 금지 더 많은 기사 보기 정치 추천 기사 인기 기사 1 출근길 기온 '뚝' 추운 날씨…오늘 아침 전국 5~ ... 2 전국에 비 소식…쌀쌀한 날씨 이어져 3 무주 주택서 어머니 생일 맞아 모였던 일가족 5명 숨져 4 경기도, 7호선 연장 도봉산~옥정 완공 1년 연기 검토 5 러시아, 우크라에 미사일 75발 포격…최소 5명 사망 6 연휴 마지막 날…서울 광화문·용산 등 도심서 대규모 ... 7 최근 5년여 간 서울 경찰 77명 음주운전 징계…대 ... 8 [신장개업] 정재원 국민대 유라시아학과 교수, “러 ... 9 서울 화곡·인천 부평, '전세사기' 집중 발생 10 오늘 법사위 등 10개 상임위 국감…'유병호 문자' ... 개인정보처리방침  l 영상정보처리기기방침  l 사이버 감사실  l 저작권 정책  l 광고 • 협찬단가표  l 시청자 위원회  l 정보공개 03909 서울특별시 마포구 매봉산로 31 S-PLEX CENTER | 문의전화 : 02-311-5114(ARS)Copyright © Since 2020 Seoul Media Foundation TBS. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 공식 제주여행 블로그기자단 출범 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 공식 제주여행 블로그기자단 출범 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 공식 제주여행 블로그기자단 출범 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.11 13:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 8일 제주웰컴센터에서 '2016 제주여행 블로그 기자단' 위촉식을 갖고 본격 운영에 들어갔다고 11일 밝혔다.제주여행 블로그기지단은 협회 홉페이지, 하이제주 포털, 협회.하이제주 페이스북을 통해 접수한 신청자 가운데 비상업적이고 제주에 거주하면서 활동을 하고 있는 블로거 7명이 선정됐다. 이번에 선정된 기자단은 파워블로거로 이름이 알려진 블로거를 비롯해 회사원(IT업체 등), 여행작가 등 다양한 직업군으로 구성되어 각자 개성있는 열할을 담당할 것으로 기대하고 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 펜션 찾고 있다면, 다양한 관광지와 더불어 체험 여부 확인해야 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 제주도 펜션 찾고 있다면, 다양한 관광지와 더불어 체험 여부 확인해야 발행일 : 2016-04-08 16:31 제주도 서귀포 중문관광단지 인근에 위치한 ‘풀향기휴양펜션’은 20평 6채, 24평 2채로 삼나무로 지어진 독채 복층펜션이다. 또한 야외데크에서는 개별 바비큐파티는 물론 전 객실이 통유리로 설치되어 있어 바다 조망이 가능하다. 이곳 주변에는 올레길 8코스 및 9코스가 위치해 있어 제주 트레킹을 온 관광객들이 자주 방문한다. 뿐만 아니라 대평리바닷가에 위치해 있어 바다낚시는 물론 소라, 미역, 보말 체험을 할 수 있다. 또한 천제연폭포를 비롯해 송악산, 안덕계곡, 소인국테마파크 등의 다양한 관광지가 인접해 있어 편리한 여행이 가능하며, 약 6000㎡의 잔디밭과 유채꽃밭이 조성되어 있어 가족 및 커플 단위의 방문객이 많이 찾고 있다. 제주도 서귀포 중문단지 인근 ‘풀향기 휴양 펜션’은 현재 예약 확정을 한 고객들에게 관광지 할인 쿠폰 증정 행사를 시행하고 있으며 자세한 사항은 홈페이지 및 전화로 문의가 가능하다. 전자신문인터넷 이민우 기자 (lmw@etnews.com) 핫뉴스 in LIFE 1 송가인, 전국투어 콘서트 매진 행렬... "웃돈 줘도 살 수 없다" 2 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 3 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 4 송가인 X 금잔디, 털털함으로 뭉친 트롯 여신들 5 “한복 입은 가인이어라♥”…송가인, ‘치명적 단아美’ [화보] AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도, 중국스포츠용품박람회서 골프관광 세일즈 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 중국스포츠용품박람회서 골프관광 세일즈 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 중국스포츠용품박람회서 골프관광 세일즈 오미란 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.12 14:19 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회, 골프업계 관계자로 구성된 공동 유치단은 오는 22일부터 25일까지 중국 복건성 푸저우시에서 열리는 제34회 중국국제스포츠용품박람회에서 골프관광 세일즈에 나선다.공동 유치단은 이번 박람회에서 B2B, B2C, 홍보물배포, 소비자 이벤트 등을 실시, 박람회 참가 주요 골프업계 및 기관단체, 동호회 등과 인적 및 협력네트워크를 구축해 골프관광객 유치기반을 마련한다는 계획이다.특히 중국 복건성 지역 골프협회와 골프전문여행사 등 골프관련 기관.단체 및 업계를 직접 방문해 세일즈를 실시하는 등 실질적인 골프관광객을 확보하겠다는 포부다.제주도 측은 "블루오션 골프관광 시장인 중국 시장을 개척하기 위해 민관공동 유치단을 구성해 지난해 상해 지역 등에 이어 이번엔 중국 복건성 지역을 타켓으로 집중 공략할 것"이라며, "중국지역 신규 골프수요를 창출할 수 있도록 노력하겠다"고 밝혔다.&lt;헤드라인제주&gt;&lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회, 4월 친선대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회, 4월 친선대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회, 4월 친선대회 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.06 17:38 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 정양훈)는 5일 에버리스골프&amp;리조트에서 회원사 임직원 및 가족 등 동호회 회원 50여명이 참가한 가운데 4월 친선 골프대회를 개최했다.이날 대회 결과 강행수 무성수산 대표가 우승을, 이승재 태백산 대표가 메달리스트의 영예를 얻었다. 이상호 부경축산 대표는 준우승을 차지했다.관광협회 관계자는 "앞으로도 지속적인 친선골프대회 개최해 제주도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획이다"고 말했다.&lt;헤드라인제주&gt;&lt;홍창빈 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 고객감동 '찾아가는 친절교육' 실시 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 고객감동 '찾아가는 친절교육' 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 고객감동 '찾아가는 친절교육' 실시 기자명 고병수 기자 입력 2016.04.05 17:20 수정 2016.04.05 17:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 친절교육을 실시하는 모습. (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)와 제주도인재개발원(원장 김영주)은 제주 관광 만족도 제고를 위한 '찾아가는 도민 친절교육'을 4일부터 5일까지 양일간 제주웰컴센터에서 실시했다고 밝혔다.친절 교육은 道관광협회가 '제주 관광의 질적성장' 실현 사업의 일환으로 친절 서비스 교육 전문 성정화 CS강사를 초빙해 도내 관광사업체 종사자를 대상으로 대고객 서비스 제공을 위한 전략적 특강으로 진행했다.특히 이번 교육에는 제주 공항·만에서 입도 관광객을 처음 맞이하는 종합관광안내소 직원들도 전원 참석했다.도 관광협회는 친절교육을 통해 오는 2018년까지 '한국방문의 해'에 'K스마일 캠페인' 동참 확대와 국내외 관광객맞이 인사, 미소 등 응대 방법 및 관광안내 등에 대한 친절서비스 실천 방안 등 제주관광 고품격 대고객서비스 제공으로 이어질 것으로 기대하고 있다. 협회 관계자는 제주 재방문 관광객 증대 및 글로벌 수준의 제주관광 환대역량 강화를 위해 제주를 찾아오는 관광객들에게 고객감동 서비스 제공의 중요성을 강조했다.이어 "앞으로도 친절 서비스 제고를 위한 관련 교육 등을 지속 실시할 계획"이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[시선강탈] '배틀트립' 심형탁, LED 연꽃 있는 제주도 선운정사 관광 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 [시선강탈] '배틀트립' 심형탁, LED 연꽃 있는 제주도 선운정사 관광2016. 04.24(일) 08:20 [티브이데일리 이윤민 기자] '배틀트립'에서 심형탁이 선운정사를 찾아 아름다운 경치를 즐겼다. 23일 밤 방송된 KBS2 예능프로그램 '배틀트립'에서는 '비행기 타고 떠나는 1박 2일 최저가 여행'을 주제로 걸그룹 EXID의 하니와 솔지, 배우 심형탁과 그룹 쿨의 이재훈이 각각 팀을 이뤄이 떠났다. 이날 심형탁은 제주도의 푸른 밤을 볼 수 있는 선운정사를 찾았다. 실제 별똥별이 쏟아지는 아름다운 야경은 압권이었다. 또한 선운정사는 LED 연꽃과 조명을 더한 불상으로 아름다운 풍경을 자랑했다. 무엇보다도 이 곳의 입장은 공짜로 심형탁의 만족감을 배가시켰다. [티브이데일리 이윤민 기자 news@tvdaily.co.kr / 사진=KBS2 방송화면 캡처] 기사제보 news@tvdaily.co.kr        이윤민 기자의 다른 기사 보기 선우은숙♥유영재, 깜짝 재혼 발표 축하 물결 [이슈&amp;톡]양조위, 40년 연기 인생이 곧 '화양연화' [27th BIFF 종합] 오은영 매직 없이, ‘우아달 리턴즈’ 호기로운 결단… '공조2' 장기 흥행vs'정직한 후보2' 2일 천하… 침묵 깬 YG…제니·뷔 '사생활 유포' 뒤늦은 진화… [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→… '마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [… 선우은숙, 유영재 아나운서와 재혼 "혼인… 박시연, 음주운전 후 첫 공식석상…손담비… '작은 아씨들' 결말, 김고은 300억 … '남궁민♥' 진아름, 결혼 소감 "예쁘게… '작은 아씨들' 엄지원, 장광 살해 "넌… '태풍의 신부' 손창민, 박하나 父 살해… '동상이몽2' 오상진, 빼다박은 딸 최초… [TD포토+] 구혜선 '변하지 않는 …[TD포토+] 김예원 '화제의 수리남… 톰 크루즈, 이번엔 우주로 가나 [TD할리웃] 안젤리나 졸리, 피트 아동 폭행 주장 “… 윌 스미스 '해방'으로 복귀 확정, 폭행… '폭행 논란' 윌 스미스, '해방' 통해… 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
+  </si>
+  <si>
+    <t>한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 한국은행, 제주도 등과 '관광통계 개선 워킹그룹 회의' 운영 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.04 12:15 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한국은행 제주본부(본부장 하근철)는 제주특별자치도 및 제주관광공사(사장 최갑열)와 함께 4일부터 약 2주간 '제주 관광통계 개선을 위한 워킹그룹' 회의를 개최하고 본격적인 활동을 개시한다고 밝혔다.이들 3개기관은 지난해 2월 '제주 관광통계 개선을 위한 TF팀'을 구성해 총 6차례에 걸쳐 논의를 진행해 왔는데, 이 결과 한국은행의 관광통계 추계방법을 제주자치도와 공유하기로 합의하고 이번에 워킹그룹을 구성하기에 이르렀다고 설명했다.워킹그룹 회의에서 한국은행 제주본부는 국민소득통계 추계방식인 생산접근법을 활용한 관광통계 추계방법을 자치도 및 제주관광공사와 공유할 계획이다.관광수입 통계를 비롯하여 관광산업의 질적 성장을 보여주는 업종별 성장률, 부가가치 요소소득, 고용효과 등에 대한 추계방법도 제시할 예정이다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제19회 제주도 관광기념품 공모전 개최...출품 조건은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제19회 제주도 관광기념품 공모전 개최...출품 조건은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 문화 제19회 제주도 관광기념품 공모전 개최...출품 조건은? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.04.03 07:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주를 방문한 관광객들이 제주여행의 추억을 간직할 수 있도록 하고 관광기념품 개발 촉진을 위해 '제19회 제주특별자치도 관광기념품 공모전'을 개최하고, 오는 7월25일부터 8월3일까지 출품작을 접수받는다고 3일 밝혔다.올해 공모전에서는 공모분야를 확대해, 제주의 문화 또는 관광지 등의 특성을 나타내는 일반기념품 분야와 해녀의 특성을 나타내는 테마기념품 분야로 구분해 진행된다.관광객들이 구입할 수 있는 부담 없는 크기와 가격을 위해 출품조건도 종전 60x60㎝ 크기를 30x30㎝로 개선하고, 가격도 50만원에서 20만원으로 조정했다.제주자치도는 응모된 작품을 중심으로 심사를 진행해 일반기념품 분야와 테마기념품 분야를 합해 총 35점의 수상작을 선정할 계획이다.또 수상작에 대한 상품화가 이뤄질 수 있도록 저작권 보호, 디자인 보호 등 지식재산권 등록에 따른 출원비를 지원하기로 했다.자세한 내용은 제주특별자치도관광협회 홈페이지(www.visitjeju.or.kr)를 참조하면 된다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,9 +566,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -467,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,9 +585,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -489,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -510,9 +615,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -522,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -533,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -544,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -553,6 +655,226 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
